--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/8 Gabir Beel Khal/8 CS of Gabir Beel khal.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/8 Gabir Beel Khal/8 CS of Gabir Beel khal.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="845" activeTab="3"/>
@@ -17,7 +17,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Gabir Beel khal'!$A$1:$T$386</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Long section Gabir Beel khal'!$A$1:$AB$47</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -810,6 +810,24 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
@@ -860,24 +878,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -894,11 +894,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify"/>
@@ -1559,11 +1559,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="207869056"/>
-        <c:axId val="207871360"/>
+        <c:axId val="242222976"/>
+        <c:axId val="242238208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="207869056"/>
+        <c:axId val="242222976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1647,7 +1647,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207871360"/>
+        <c:crossAx val="242238208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1656,7 +1656,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="207871360"/>
+        <c:axId val="242238208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1740,7 +1740,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207869056"/>
+        <c:crossAx val="242222976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -2022,11 +2022,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208441344"/>
-        <c:axId val="208442880"/>
+        <c:axId val="16515840"/>
+        <c:axId val="16517376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208441344"/>
+        <c:axId val="16515840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2072,12 +2072,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208442880"/>
+        <c:crossAx val="16517376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208442880"/>
+        <c:axId val="16517376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2122,7 +2122,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208441344"/>
+        <c:crossAx val="16515840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2368,11 +2368,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209991936"/>
-        <c:axId val="209993728"/>
+        <c:axId val="16526336"/>
+        <c:axId val="16528128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209991936"/>
+        <c:axId val="16526336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2418,12 +2418,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209993728"/>
+        <c:crossAx val="16528128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209993728"/>
+        <c:axId val="16528128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2468,7 +2468,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209991936"/>
+        <c:crossAx val="16526336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2708,11 +2708,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="210027264"/>
-        <c:axId val="210028800"/>
+        <c:axId val="16545280"/>
+        <c:axId val="16546816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="210027264"/>
+        <c:axId val="16545280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2758,12 +2758,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210028800"/>
+        <c:crossAx val="16546816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="210028800"/>
+        <c:axId val="16546816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2808,7 +2808,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210027264"/>
+        <c:crossAx val="16545280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3066,11 +3066,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="210054144"/>
-        <c:axId val="210064128"/>
+        <c:axId val="16560128"/>
+        <c:axId val="16561664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="210054144"/>
+        <c:axId val="16560128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3116,12 +3116,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210064128"/>
+        <c:crossAx val="16561664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="210064128"/>
+        <c:axId val="16561664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3166,7 +3166,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210054144"/>
+        <c:crossAx val="16560128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3412,11 +3412,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="210089472"/>
-        <c:axId val="210091008"/>
+        <c:axId val="16574720"/>
+        <c:axId val="16584704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="210089472"/>
+        <c:axId val="16574720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3462,12 +3462,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210091008"/>
+        <c:crossAx val="16584704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="210091008"/>
+        <c:axId val="16584704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3512,7 +3512,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210089472"/>
+        <c:crossAx val="16574720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3758,11 +3758,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="211423232"/>
-        <c:axId val="211424768"/>
+        <c:axId val="16593664"/>
+        <c:axId val="16595200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="211423232"/>
+        <c:axId val="16593664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3808,12 +3808,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211424768"/>
+        <c:crossAx val="16595200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211424768"/>
+        <c:axId val="16595200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3858,7 +3858,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211423232"/>
+        <c:crossAx val="16593664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4110,11 +4110,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="211466496"/>
-        <c:axId val="211472384"/>
+        <c:axId val="16612352"/>
+        <c:axId val="16614144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="211466496"/>
+        <c:axId val="16612352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4160,12 +4160,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211472384"/>
+        <c:crossAx val="16614144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211472384"/>
+        <c:axId val="16614144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4210,7 +4210,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211466496"/>
+        <c:crossAx val="16612352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4456,11 +4456,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="211583744"/>
-        <c:axId val="211585280"/>
+        <c:axId val="16627200"/>
+        <c:axId val="16628736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="211583744"/>
+        <c:axId val="16627200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4506,12 +4506,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211585280"/>
+        <c:crossAx val="16628736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211585280"/>
+        <c:axId val="16628736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4556,7 +4556,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211583744"/>
+        <c:crossAx val="16627200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4808,11 +4808,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="211610624"/>
-        <c:axId val="211485440"/>
+        <c:axId val="16642048"/>
+        <c:axId val="16643584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="211610624"/>
+        <c:axId val="16642048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4858,12 +4858,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211485440"/>
+        <c:crossAx val="16643584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211485440"/>
+        <c:axId val="16643584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4908,7 +4908,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211610624"/>
+        <c:crossAx val="16642048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5148,11 +5148,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="211531264"/>
-        <c:axId val="211532800"/>
+        <c:axId val="16656640"/>
+        <c:axId val="16658432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="211531264"/>
+        <c:axId val="16656640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5198,12 +5198,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211532800"/>
+        <c:crossAx val="16658432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211532800"/>
+        <c:axId val="16658432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5248,7 +5248,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211531264"/>
+        <c:crossAx val="16656640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5500,11 +5500,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207987072"/>
-        <c:axId val="207988608"/>
+        <c:axId val="244208000"/>
+        <c:axId val="244209920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207987072"/>
+        <c:axId val="244208000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5550,12 +5550,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207988608"/>
+        <c:crossAx val="244209920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207988608"/>
+        <c:axId val="244209920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5600,7 +5600,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207987072"/>
+        <c:crossAx val="244208000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5846,11 +5846,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="211759104"/>
-        <c:axId val="211760640"/>
+        <c:axId val="16683776"/>
+        <c:axId val="16685312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="211759104"/>
+        <c:axId val="16683776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5896,12 +5896,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211760640"/>
+        <c:crossAx val="16685312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211760640"/>
+        <c:axId val="16685312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5946,7 +5946,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211759104"/>
+        <c:crossAx val="16683776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6186,11 +6186,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="211790080"/>
-        <c:axId val="211795968"/>
+        <c:axId val="16702464"/>
+        <c:axId val="16704256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="211790080"/>
+        <c:axId val="16702464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6236,12 +6236,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211795968"/>
+        <c:crossAx val="16704256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211795968"/>
+        <c:axId val="16704256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6286,7 +6286,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211790080"/>
+        <c:crossAx val="16702464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6526,11 +6526,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="211698816"/>
-        <c:axId val="211700352"/>
+        <c:axId val="41817984"/>
+        <c:axId val="41819520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="211698816"/>
+        <c:axId val="41817984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6576,12 +6576,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211700352"/>
+        <c:crossAx val="41819520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211700352"/>
+        <c:axId val="41819520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6626,7 +6626,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211698816"/>
+        <c:crossAx val="41817984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6872,11 +6872,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="211713408"/>
-        <c:axId val="211739776"/>
+        <c:axId val="41836928"/>
+        <c:axId val="41838464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="211713408"/>
+        <c:axId val="41836928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6922,12 +6922,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211739776"/>
+        <c:crossAx val="41838464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211739776"/>
+        <c:axId val="41838464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6972,7 +6972,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211713408"/>
+        <c:crossAx val="41836928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7212,11 +7212,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="211904384"/>
-        <c:axId val="211905920"/>
+        <c:axId val="41851520"/>
+        <c:axId val="41865600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="211904384"/>
+        <c:axId val="41851520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7262,12 +7262,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211905920"/>
+        <c:crossAx val="41865600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211905920"/>
+        <c:axId val="41865600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7312,7 +7312,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211904384"/>
+        <c:crossAx val="41851520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7570,11 +7570,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="211947904"/>
-        <c:axId val="211949440"/>
+        <c:axId val="42108032"/>
+        <c:axId val="42109568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="211947904"/>
+        <c:axId val="42108032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7620,12 +7620,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211949440"/>
+        <c:crossAx val="42109568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211949440"/>
+        <c:axId val="42109568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7670,7 +7670,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211947904"/>
+        <c:crossAx val="42108032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7916,11 +7916,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="211966592"/>
-        <c:axId val="211988864"/>
+        <c:axId val="42122624"/>
+        <c:axId val="42140800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="211966592"/>
+        <c:axId val="42122624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7966,12 +7966,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211988864"/>
+        <c:crossAx val="42140800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211988864"/>
+        <c:axId val="42140800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8016,7 +8016,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211966592"/>
+        <c:crossAx val="42122624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8250,11 +8250,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="212018688"/>
-        <c:axId val="212020224"/>
+        <c:axId val="42936576"/>
+        <c:axId val="42938368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="212018688"/>
+        <c:axId val="42936576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8300,12 +8300,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212020224"/>
+        <c:crossAx val="42938368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="212020224"/>
+        <c:axId val="42938368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8350,7 +8350,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212018688"/>
+        <c:crossAx val="42936576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8596,11 +8596,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="212058112"/>
-        <c:axId val="212059648"/>
+        <c:axId val="42963712"/>
+        <c:axId val="42965248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="212058112"/>
+        <c:axId val="42963712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8646,12 +8646,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212059648"/>
+        <c:crossAx val="42965248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="212059648"/>
+        <c:axId val="42965248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8696,7 +8696,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212058112"/>
+        <c:crossAx val="42963712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8936,11 +8936,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="212158336"/>
-        <c:axId val="212159872"/>
+        <c:axId val="42982016"/>
+        <c:axId val="42983808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="212158336"/>
+        <c:axId val="42982016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8986,12 +8986,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212159872"/>
+        <c:crossAx val="42983808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="212159872"/>
+        <c:axId val="42983808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9036,7 +9036,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212158336"/>
+        <c:crossAx val="42982016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9282,11 +9282,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208296576"/>
-        <c:axId val="208302464"/>
+        <c:axId val="245778304"/>
+        <c:axId val="245932032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208296576"/>
+        <c:axId val="245778304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9332,12 +9332,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208302464"/>
+        <c:crossAx val="245932032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208302464"/>
+        <c:axId val="245932032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9382,7 +9382,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208296576"/>
+        <c:crossAx val="245778304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9625,11 +9625,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="212194432"/>
-        <c:axId val="212195968"/>
+        <c:axId val="43194240"/>
+        <c:axId val="43195776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="212194432"/>
+        <c:axId val="43194240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9675,12 +9675,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212195968"/>
+        <c:crossAx val="43195776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="212195968"/>
+        <c:axId val="43195776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9725,7 +9725,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212194432"/>
+        <c:crossAx val="43194240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9965,11 +9965,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208323712"/>
-        <c:axId val="208325248"/>
+        <c:axId val="260397312"/>
+        <c:axId val="260399872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208323712"/>
+        <c:axId val="260397312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -10015,12 +10015,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208325248"/>
+        <c:crossAx val="260399872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208325248"/>
+        <c:axId val="260399872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10065,7 +10065,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208323712"/>
+        <c:crossAx val="260397312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10323,11 +10323,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208778752"/>
-        <c:axId val="208780288"/>
+        <c:axId val="272693120"/>
+        <c:axId val="299067648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208778752"/>
+        <c:axId val="272693120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -10373,12 +10373,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208780288"/>
+        <c:crossAx val="299067648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208780288"/>
+        <c:axId val="299067648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10423,7 +10423,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208778752"/>
+        <c:crossAx val="272693120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10669,11 +10669,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208355712"/>
-        <c:axId val="208357248"/>
+        <c:axId val="16427648"/>
+        <c:axId val="16429440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208355712"/>
+        <c:axId val="16427648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -10719,12 +10719,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208357248"/>
+        <c:crossAx val="16429440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208357248"/>
+        <c:axId val="16429440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10769,7 +10769,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208355712"/>
+        <c:crossAx val="16427648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11015,11 +11015,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208392576"/>
-        <c:axId val="208394112"/>
+        <c:axId val="16446592"/>
+        <c:axId val="16448128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208392576"/>
+        <c:axId val="16446592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -11065,12 +11065,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208394112"/>
+        <c:crossAx val="16448128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208394112"/>
+        <c:axId val="16448128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11115,7 +11115,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208392576"/>
+        <c:crossAx val="16446592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11367,11 +11367,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209599488"/>
-        <c:axId val="209609472"/>
+        <c:axId val="16470016"/>
+        <c:axId val="16471552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209599488"/>
+        <c:axId val="16470016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -11417,12 +11417,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209609472"/>
+        <c:crossAx val="16471552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209609472"/>
+        <c:axId val="16471552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11467,7 +11467,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209599488"/>
+        <c:crossAx val="16470016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11725,11 +11725,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208406016"/>
-        <c:axId val="208407552"/>
+        <c:axId val="16492800"/>
+        <c:axId val="16506880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208406016"/>
+        <c:axId val="16492800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -11775,12 +11775,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208407552"/>
+        <c:crossAx val="16506880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208407552"/>
+        <c:axId val="16506880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11825,7 +11825,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208406016"/>
+        <c:crossAx val="16492800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11899,7 +11899,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11942,7 +11942,7 @@
         <xdr:cNvPr id="2" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8FF7218-DFF7-4357-8330-519C8E2164C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8FF7218-DFF7-4357-8330-519C8E2164C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11980,7 +11980,7 @@
         <xdr:cNvPr id="3" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37AE6D2E-5661-462A-B4C4-0B2DE1EF60C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37AE6D2E-5661-462A-B4C4-0B2DE1EF60C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12018,7 +12018,7 @@
         <xdr:cNvPr id="4" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E780CEE0-AD9C-4FED-9989-52AB769078DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E780CEE0-AD9C-4FED-9989-52AB769078DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12061,7 +12061,7 @@
         <xdr:cNvPr id="2" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F5B9975-A85D-46E4-B500-C1CB1A0287C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5F5B9975-A85D-46E4-B500-C1CB1A0287C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12099,7 +12099,7 @@
         <xdr:cNvPr id="3" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24E05792-92F2-4222-ADCF-CF542C0EC697}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24E05792-92F2-4222-ADCF-CF542C0EC697}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12137,7 +12137,7 @@
         <xdr:cNvPr id="4" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21406F6B-21F4-419D-9B29-E3B1529C0482}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21406F6B-21F4-419D-9B29-E3B1529C0482}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12180,7 +12180,7 @@
         <xdr:cNvPr id="2" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12218,7 +12218,7 @@
         <xdr:cNvPr id="36" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53EBD8AF-9F1A-4091-BB8C-CCDEE2A6A6ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53EBD8AF-9F1A-4091-BB8C-CCDEE2A6A6ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12256,7 +12256,7 @@
         <xdr:cNvPr id="37" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B0A20F-C3C6-4F50-A940-9119C9C3D095}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12B0A20F-C3C6-4F50-A940-9119C9C3D095}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12294,7 +12294,7 @@
         <xdr:cNvPr id="38" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{860ED641-517A-4279-8B9F-F1C672642510}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{860ED641-517A-4279-8B9F-F1C672642510}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12332,7 +12332,7 @@
         <xdr:cNvPr id="39" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDCB6569-0379-4F60-99CA-0643F1353EBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDCB6569-0379-4F60-99CA-0643F1353EBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12370,7 +12370,7 @@
         <xdr:cNvPr id="40" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144F283E-7B60-4404-B26B-9E0981B558A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{144F283E-7B60-4404-B26B-9E0981B558A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12408,7 +12408,7 @@
         <xdr:cNvPr id="41" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F16DEB-454F-4AFC-A2C4-5715A988E77B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17F16DEB-454F-4AFC-A2C4-5715A988E77B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12446,7 +12446,7 @@
         <xdr:cNvPr id="42" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CA5868A-AE9D-48F6-877C-6668D15DE49D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CA5868A-AE9D-48F6-877C-6668D15DE49D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12484,7 +12484,7 @@
         <xdr:cNvPr id="43" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE533EB4-A2D8-4765-8B62-95B7F50F332D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE533EB4-A2D8-4765-8B62-95B7F50F332D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12522,7 +12522,7 @@
         <xdr:cNvPr id="44" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42221F1C-7ADF-4D1C-AC06-1A67A1F0F9E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42221F1C-7ADF-4D1C-AC06-1A67A1F0F9E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12560,7 +12560,7 @@
         <xdr:cNvPr id="45" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{095BFDBF-7AB7-4948-867C-8DF247FF4400}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{095BFDBF-7AB7-4948-867C-8DF247FF4400}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12598,7 +12598,7 @@
         <xdr:cNvPr id="46" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6F522DB-5C69-439F-9B63-120A004F2731}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6F522DB-5C69-439F-9B63-120A004F2731}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12636,7 +12636,7 @@
         <xdr:cNvPr id="47" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E47E8D02-FBB4-474F-BCC7-0182E93F17BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E47E8D02-FBB4-474F-BCC7-0182E93F17BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12674,7 +12674,7 @@
         <xdr:cNvPr id="48" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF54B737-F1C4-4BB8-A1F0-48ECF1D8605B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF54B737-F1C4-4BB8-A1F0-48ECF1D8605B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12712,7 +12712,7 @@
         <xdr:cNvPr id="49" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D740B78-EE60-4937-AE70-03110307A857}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D740B78-EE60-4937-AE70-03110307A857}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12750,7 +12750,7 @@
         <xdr:cNvPr id="50" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0C40603-DAED-45E1-8C63-A48698D89A23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0C40603-DAED-45E1-8C63-A48698D89A23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12788,7 +12788,7 @@
         <xdr:cNvPr id="51" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C1D77C1-CFFA-4BF9-A191-836028D36BD3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C1D77C1-CFFA-4BF9-A191-836028D36BD3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12826,7 +12826,7 @@
         <xdr:cNvPr id="52" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9B11E40-F5BD-4EC4-AFC5-8785129AB0F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9B11E40-F5BD-4EC4-AFC5-8785129AB0F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12864,7 +12864,7 @@
         <xdr:cNvPr id="53" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEEB865F-A69D-41FE-8A3D-5F3A5A5D9D3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FEEB865F-A69D-41FE-8A3D-5F3A5A5D9D3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12902,7 +12902,7 @@
         <xdr:cNvPr id="21" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB53F7A3-4524-45F4-B0BA-68C8E1838746}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB53F7A3-4524-45F4-B0BA-68C8E1838746}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12940,7 +12940,7 @@
         <xdr:cNvPr id="22" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C206592A-4128-48DE-8946-3B281553DA66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C206592A-4128-48DE-8946-3B281553DA66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12978,7 +12978,7 @@
         <xdr:cNvPr id="23" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A75497BF-EEE9-4FB6-B8CA-1F59BB214DB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A75497BF-EEE9-4FB6-B8CA-1F59BB214DB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13016,7 +13016,7 @@
         <xdr:cNvPr id="24" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D697FDF5-03A9-4FCA-9F75-0BB7830582F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D697FDF5-03A9-4FCA-9F75-0BB7830582F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13059,7 +13059,7 @@
         <xdr:cNvPr id="5" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13192,7 +13192,7 @@
         <xdr:cNvPr id="6" name="Text Box 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13344,7 +13344,7 @@
         <xdr:cNvPr id="7" name="Text Box 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14116,15 +14116,15 @@
       <c r="A1" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
       <c r="I1" s="53"/>
       <c r="J1" s="53"/>
       <c r="K1" s="53"/>
@@ -14513,21 +14513,21 @@
     </row>
     <row r="7" spans="1:39" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="67"/>
-      <c r="F7" s="87" t="s">
+      <c r="F7" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="87"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="93"/>
+      <c r="R7" s="93"/>
       <c r="AB7" s="69"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.2">
@@ -14637,77 +14637,77 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="67"/>
-      <c r="R34" s="88" t="s">
+      <c r="R34" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="89"/>
-      <c r="T34" s="89"/>
-      <c r="U34" s="89"/>
-      <c r="V34" s="89"/>
-      <c r="W34" s="89"/>
-      <c r="X34" s="89"/>
-      <c r="Y34" s="89"/>
-      <c r="Z34" s="89"/>
-      <c r="AA34" s="89"/>
-      <c r="AB34" s="90"/>
+      <c r="S34" s="95"/>
+      <c r="T34" s="95"/>
+      <c r="U34" s="95"/>
+      <c r="V34" s="95"/>
+      <c r="W34" s="95"/>
+      <c r="X34" s="95"/>
+      <c r="Y34" s="95"/>
+      <c r="Z34" s="95"/>
+      <c r="AA34" s="95"/>
+      <c r="AB34" s="96"/>
     </row>
     <row r="35" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="67"/>
-      <c r="R35" s="91" t="s">
+      <c r="R35" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="S35" s="92"/>
-      <c r="T35" s="92"/>
-      <c r="U35" s="92"/>
-      <c r="V35" s="92"/>
-      <c r="W35" s="92"/>
-      <c r="X35" s="92"/>
-      <c r="Y35" s="92"/>
-      <c r="Z35" s="92"/>
-      <c r="AA35" s="92"/>
-      <c r="AB35" s="93"/>
+      <c r="S35" s="98"/>
+      <c r="T35" s="98"/>
+      <c r="U35" s="98"/>
+      <c r="V35" s="98"/>
+      <c r="W35" s="98"/>
+      <c r="X35" s="98"/>
+      <c r="Y35" s="98"/>
+      <c r="Z35" s="98"/>
+      <c r="AA35" s="98"/>
+      <c r="AB35" s="99"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="67"/>
-      <c r="R36" s="94"/>
-      <c r="S36" s="95"/>
-      <c r="T36" s="95"/>
-      <c r="U36" s="95"/>
-      <c r="V36" s="95"/>
-      <c r="W36" s="95"/>
-      <c r="X36" s="95"/>
-      <c r="Y36" s="95"/>
-      <c r="Z36" s="95"/>
-      <c r="AA36" s="95"/>
-      <c r="AB36" s="96"/>
+      <c r="R36" s="100"/>
+      <c r="S36" s="101"/>
+      <c r="T36" s="101"/>
+      <c r="U36" s="101"/>
+      <c r="V36" s="101"/>
+      <c r="W36" s="101"/>
+      <c r="X36" s="101"/>
+      <c r="Y36" s="101"/>
+      <c r="Z36" s="101"/>
+      <c r="AA36" s="101"/>
+      <c r="AB36" s="102"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="67"/>
-      <c r="R37" s="94"/>
-      <c r="S37" s="95"/>
-      <c r="T37" s="95"/>
-      <c r="U37" s="95"/>
-      <c r="V37" s="95"/>
-      <c r="W37" s="95"/>
-      <c r="X37" s="95"/>
-      <c r="Y37" s="95"/>
-      <c r="Z37" s="95"/>
-      <c r="AA37" s="95"/>
-      <c r="AB37" s="96"/>
+      <c r="R37" s="100"/>
+      <c r="S37" s="101"/>
+      <c r="T37" s="101"/>
+      <c r="U37" s="101"/>
+      <c r="V37" s="101"/>
+      <c r="W37" s="101"/>
+      <c r="X37" s="101"/>
+      <c r="Y37" s="101"/>
+      <c r="Z37" s="101"/>
+      <c r="AA37" s="101"/>
+      <c r="AB37" s="102"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="67"/>
-      <c r="R38" s="97"/>
-      <c r="S38" s="98"/>
-      <c r="T38" s="98"/>
-      <c r="U38" s="98"/>
-      <c r="V38" s="98"/>
-      <c r="W38" s="98"/>
-      <c r="X38" s="98"/>
-      <c r="Y38" s="98"/>
-      <c r="Z38" s="98"/>
-      <c r="AA38" s="98"/>
-      <c r="AB38" s="99"/>
+      <c r="R38" s="103"/>
+      <c r="S38" s="104"/>
+      <c r="T38" s="104"/>
+      <c r="U38" s="104"/>
+      <c r="V38" s="104"/>
+      <c r="W38" s="104"/>
+      <c r="X38" s="104"/>
+      <c r="Y38" s="104"/>
+      <c r="Z38" s="104"/>
+      <c r="AA38" s="104"/>
+      <c r="AB38" s="105"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="67"/>
@@ -14771,86 +14771,86 @@
     </row>
     <row r="43" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="67"/>
-      <c r="R43" s="100" t="s">
+      <c r="R43" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="S43" s="101"/>
-      <c r="T43" s="101"/>
-      <c r="U43" s="102"/>
-      <c r="V43" s="100" t="s">
+      <c r="S43" s="107"/>
+      <c r="T43" s="107"/>
+      <c r="U43" s="108"/>
+      <c r="V43" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="W43" s="101"/>
-      <c r="X43" s="101"/>
-      <c r="Y43" s="102"/>
-      <c r="Z43" s="100" t="s">
+      <c r="W43" s="107"/>
+      <c r="X43" s="107"/>
+      <c r="Y43" s="108"/>
+      <c r="Z43" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="AA43" s="101"/>
-      <c r="AB43" s="102"/>
+      <c r="AA43" s="107"/>
+      <c r="AB43" s="108"/>
       <c r="AC43" s="67"/>
     </row>
     <row r="44" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="67"/>
-      <c r="R44" s="103" t="s">
+      <c r="R44" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="S44" s="104"/>
-      <c r="T44" s="104"/>
-      <c r="U44" s="105"/>
-      <c r="V44" s="103" t="s">
+      <c r="S44" s="86"/>
+      <c r="T44" s="86"/>
+      <c r="U44" s="87"/>
+      <c r="V44" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="W44" s="104"/>
-      <c r="X44" s="104"/>
-      <c r="Y44" s="105"/>
-      <c r="Z44" s="103" t="s">
+      <c r="W44" s="86"/>
+      <c r="X44" s="86"/>
+      <c r="Y44" s="87"/>
+      <c r="Z44" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="AA44" s="104"/>
-      <c r="AB44" s="105"/>
+      <c r="AA44" s="86"/>
+      <c r="AB44" s="87"/>
       <c r="AC44" s="67"/>
     </row>
     <row r="45" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="67"/>
-      <c r="R45" s="103" t="s">
+      <c r="R45" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="S45" s="104"/>
-      <c r="T45" s="104"/>
-      <c r="U45" s="105"/>
-      <c r="V45" s="103" t="s">
+      <c r="S45" s="86"/>
+      <c r="T45" s="86"/>
+      <c r="U45" s="87"/>
+      <c r="V45" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="W45" s="104"/>
-      <c r="X45" s="104"/>
-      <c r="Y45" s="105"/>
-      <c r="Z45" s="103" t="s">
+      <c r="W45" s="86"/>
+      <c r="X45" s="86"/>
+      <c r="Y45" s="87"/>
+      <c r="Z45" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="AA45" s="104"/>
-      <c r="AB45" s="105"/>
+      <c r="AA45" s="86"/>
+      <c r="AB45" s="87"/>
       <c r="AC45" s="83"/>
     </row>
     <row r="46" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="67"/>
-      <c r="R46" s="103" t="s">
+      <c r="R46" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="S46" s="104"/>
-      <c r="T46" s="104"/>
-      <c r="U46" s="105"/>
-      <c r="V46" s="103" t="s">
+      <c r="S46" s="86"/>
+      <c r="T46" s="86"/>
+      <c r="U46" s="87"/>
+      <c r="V46" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="W46" s="104"/>
-      <c r="X46" s="104"/>
-      <c r="Y46" s="105"/>
-      <c r="Z46" s="103" t="s">
+      <c r="W46" s="86"/>
+      <c r="X46" s="86"/>
+      <c r="Y46" s="87"/>
+      <c r="Z46" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="AA46" s="104"/>
-      <c r="AB46" s="105"/>
+      <c r="AA46" s="86"/>
+      <c r="AB46" s="87"/>
       <c r="AC46" s="83"/>
     </row>
     <row r="47" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -14871,23 +14871,23 @@
       <c r="O47" s="81"/>
       <c r="P47" s="81"/>
       <c r="Q47" s="81"/>
-      <c r="R47" s="106" t="s">
+      <c r="R47" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="S47" s="107"/>
-      <c r="T47" s="107"/>
-      <c r="U47" s="108"/>
-      <c r="V47" s="106" t="s">
+      <c r="S47" s="89"/>
+      <c r="T47" s="89"/>
+      <c r="U47" s="90"/>
+      <c r="V47" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="W47" s="107"/>
-      <c r="X47" s="107"/>
-      <c r="Y47" s="108"/>
-      <c r="Z47" s="106" t="s">
+      <c r="W47" s="89"/>
+      <c r="X47" s="89"/>
+      <c r="Y47" s="90"/>
+      <c r="Z47" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="AA47" s="107"/>
-      <c r="AB47" s="108"/>
+      <c r="AA47" s="89"/>
+      <c r="AB47" s="90"/>
       <c r="AC47" s="84"/>
     </row>
     <row r="53" spans="18:28" x14ac:dyDescent="0.2">
@@ -14931,18 +14931,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="R46:U46"/>
-    <mergeCell ref="V46:Y46"/>
-    <mergeCell ref="Z46:AB46"/>
-    <mergeCell ref="R47:U47"/>
-    <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="Z47:AB47"/>
-    <mergeCell ref="R44:U44"/>
-    <mergeCell ref="V44:Y44"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="R45:U45"/>
-    <mergeCell ref="V45:Y45"/>
-    <mergeCell ref="Z45:AB45"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="F7:R7"/>
     <mergeCell ref="R34:AB34"/>
@@ -14950,6 +14938,18 @@
     <mergeCell ref="R43:U43"/>
     <mergeCell ref="V43:Y43"/>
     <mergeCell ref="Z43:AB43"/>
+    <mergeCell ref="R44:U44"/>
+    <mergeCell ref="V44:Y44"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="R45:U45"/>
+    <mergeCell ref="V45:Y45"/>
+    <mergeCell ref="Z45:AB45"/>
+    <mergeCell ref="R46:U46"/>
+    <mergeCell ref="V46:Y46"/>
+    <mergeCell ref="Z46:AB46"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="Z47:AB47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.5" footer="0.5"/>
@@ -20263,10 +20263,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:V429"/>
+  <dimension ref="A1:V861"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A136" zoomScale="95" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="95" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20668,28 +20668,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
       <c r="U1" s="12"/>
       <c r="V1" s="12"/>
     </row>
@@ -21428,10 +21428,10 @@
       <c r="E21" s="13"/>
       <c r="F21" s="16"/>
       <c r="G21" s="19"/>
-      <c r="H21" s="116" t="s">
+      <c r="H21" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="116"/>
+      <c r="I21" s="115"/>
       <c r="J21" s="19" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -22214,10 +22214,10 @@
       <c r="E41" s="13"/>
       <c r="F41" s="16"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="116" t="s">
+      <c r="H41" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="I41" s="116"/>
+      <c r="I41" s="115"/>
       <c r="J41" s="19" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -22932,10 +22932,10 @@
       <c r="E61" s="13"/>
       <c r="F61" s="16"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="116" t="s">
+      <c r="H61" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="I61" s="116"/>
+      <c r="I61" s="115"/>
       <c r="J61" s="19">
         <f>G60</f>
         <v>14.261000000000003</v>
@@ -23526,10 +23526,10 @@
       <c r="E77" s="13"/>
       <c r="F77" s="16"/>
       <c r="G77" s="19"/>
-      <c r="H77" s="116" t="s">
+      <c r="H77" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="I77" s="116"/>
+      <c r="I77" s="115"/>
       <c r="J77" s="19" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -24102,10 +24102,10 @@
       <c r="E92" s="13"/>
       <c r="F92" s="16"/>
       <c r="G92" s="19"/>
-      <c r="H92" s="116" t="s">
+      <c r="H92" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="I92" s="116"/>
+      <c r="I92" s="115"/>
       <c r="J92" s="19" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -24783,10 +24783,10 @@
       <c r="E110" s="13"/>
       <c r="F110" s="16"/>
       <c r="G110" s="19"/>
-      <c r="H110" s="116" t="s">
+      <c r="H110" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="I110" s="116"/>
+      <c r="I110" s="115"/>
       <c r="J110" s="19" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -26644,10 +26644,10 @@
       <c r="E158" s="13"/>
       <c r="F158" s="16"/>
       <c r="G158" s="19"/>
-      <c r="H158" s="116" t="s">
+      <c r="H158" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="I158" s="116"/>
+      <c r="I158" s="115"/>
       <c r="J158" s="19" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -29093,10 +29093,10 @@
       <c r="E224" s="13"/>
       <c r="F224" s="16"/>
       <c r="G224" s="19"/>
-      <c r="H224" s="116" t="s">
+      <c r="H224" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="I224" s="116"/>
+      <c r="I224" s="115"/>
       <c r="J224" s="16" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -35622,8 +35622,469 @@
       <c r="O429" s="14"/>
       <c r="P429" s="14"/>
     </row>
+    <row r="433" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="434" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="435" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="436" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="437" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="438" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="439" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="440" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="441" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="442" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="443" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="444" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="445" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="447" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="448" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="449" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="450" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="451" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="452" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="453" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="454" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="455" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="456" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="457" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="458" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="459" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="460" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="461" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="462" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="463" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="464" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="465" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="466" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="467" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="468" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="469" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="470" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="471" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="472" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="473" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="474" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="475" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="477" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="478" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="479" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="480" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="481" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="482" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="483" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="484" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="485" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="486" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="487" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="488" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="489" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="490" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="491" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="492" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="493" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="494" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="495" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="496" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="497" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="498" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="499" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="500" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="501" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="502" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="503" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="504" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="505" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="507" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="508" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="509" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="510" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="511" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="512" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="513" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="514" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="515" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="516" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="517" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="518" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="519" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="520" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="521" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="522" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="523" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="524" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="525" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="526" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="527" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="528" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="529" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="530" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="531" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="532" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="533" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="534" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="535" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="537" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="538" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="539" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="540" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="541" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="542" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="543" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="544" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="545" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="546" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="547" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="548" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="549" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="550" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="551" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="552" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="553" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="554" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="555" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="556" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="557" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="558" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="559" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="560" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="561" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="562" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="563" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="564" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="565" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="567" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="568" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="569" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="570" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="571" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="572" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="573" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="574" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="575" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="576" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="577" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="578" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="579" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="580" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="581" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="582" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="583" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="584" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="585" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="586" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="587" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="588" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="589" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="590" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="591" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="592" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="593" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="594" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="595" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="597" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="598" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="599" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="600" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="601" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="602" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="603" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="604" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="605" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="606" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="607" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="608" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="609" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="610" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="611" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="612" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="613" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="614" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="615" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="616" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="617" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="618" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="619" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="620" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="621" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="622" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="623" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="624" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="625" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="626" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="627" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="628" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="629" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="630" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="631" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="632" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="633" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="634" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="635" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="636" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="637" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="638" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="639" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="640" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="641" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="642" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="643" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="644" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="645" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="646" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="647" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="648" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="649" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="650" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="651" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="652" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="653" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="654" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="655" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="656" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="657" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="658" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="659" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="660" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="661" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="662" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="663" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="664" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="665" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="666" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="667" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="668" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="669" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="670" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="671" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="672" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="673" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="674" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="675" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="676" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="677" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="678" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="679" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="680" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="681" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="682" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="683" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="684" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="685" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="686" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="687" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="688" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="689" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="690" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="691" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="692" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="693" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="694" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="695" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="696" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="697" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="698" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="699" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="700" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="701" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="702" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="703" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="704" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="705" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="706" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="707" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="708" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="709" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="710" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="711" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="712" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="713" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="714" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="715" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="716" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="717" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="718" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="719" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="720" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="721" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="722" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="723" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="724" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="725" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="726" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="727" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="728" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="729" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="730" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="731" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="732" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="733" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="734" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="735" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="736" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="737" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="738" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="739" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="740" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="741" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="742" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="743" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="744" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="745" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="746" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="747" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="748" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="749" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="750" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="751" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="752" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="753" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="754" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="755" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="756" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="757" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="758" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="759" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="760" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="761" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="762" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="763" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="764" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="765" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="766" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="767" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="768" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="769" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="770" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="771" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="772" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="773" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="774" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="775" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="776" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="777" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="778" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="779" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="780" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="785" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="786" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="787" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="788" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="789" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="790" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="791" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="792" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="793" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="794" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="795" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="796" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="797" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="798" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="799" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="800" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="801" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="802" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="803" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="804" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="805" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="806" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="807" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="808" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="809" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="810" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="811" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="812" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="813" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="814" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="815" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="816" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="817" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="818" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="819" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="820" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="821" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="822" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="823" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="824" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="825" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="826" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="827" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="828" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="829" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="830" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="831" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="832" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="833" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="834" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="835" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="836" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="837" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="838" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="839" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="840" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="841" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="842" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="843" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="844" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="845" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="846" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="847" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="848" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="849" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="850" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="851" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="852" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="853" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="854" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="855" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="856" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="857" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="858" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="859" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="860" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="861" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="H399:I399"/>
+    <mergeCell ref="B400:G400"/>
+    <mergeCell ref="I400:M400"/>
+    <mergeCell ref="H429:I429"/>
+    <mergeCell ref="D354:E354"/>
+    <mergeCell ref="B355:G355"/>
+    <mergeCell ref="I355:M355"/>
+    <mergeCell ref="D370:E370"/>
+    <mergeCell ref="B371:G371"/>
+    <mergeCell ref="I371:M371"/>
+    <mergeCell ref="D322:E322"/>
+    <mergeCell ref="B323:G323"/>
+    <mergeCell ref="I323:M323"/>
+    <mergeCell ref="D337:E337"/>
+    <mergeCell ref="B338:G338"/>
+    <mergeCell ref="I338:M338"/>
+    <mergeCell ref="D306:E306"/>
+    <mergeCell ref="D273:E273"/>
+    <mergeCell ref="D288:E288"/>
+    <mergeCell ref="B242:G242"/>
+    <mergeCell ref="I242:M242"/>
+    <mergeCell ref="D257:E257"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="H224:I224"/>
+    <mergeCell ref="D225:E225"/>
+    <mergeCell ref="B226:G226"/>
+    <mergeCell ref="I226:M226"/>
+    <mergeCell ref="D192:E192"/>
+    <mergeCell ref="B193:G193"/>
+    <mergeCell ref="I193:M193"/>
+    <mergeCell ref="D208:E208"/>
+    <mergeCell ref="B209:G209"/>
+    <mergeCell ref="I209:M209"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="H158:I158"/>
     <mergeCell ref="H41:I41"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="H92:I92"/>
@@ -35640,48 +36101,6 @@
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="H224:I224"/>
-    <mergeCell ref="D225:E225"/>
-    <mergeCell ref="B226:G226"/>
-    <mergeCell ref="I226:M226"/>
-    <mergeCell ref="D192:E192"/>
-    <mergeCell ref="B193:G193"/>
-    <mergeCell ref="I193:M193"/>
-    <mergeCell ref="D208:E208"/>
-    <mergeCell ref="B209:G209"/>
-    <mergeCell ref="I209:M209"/>
-    <mergeCell ref="I338:M338"/>
-    <mergeCell ref="D306:E306"/>
-    <mergeCell ref="D273:E273"/>
-    <mergeCell ref="D288:E288"/>
-    <mergeCell ref="B242:G242"/>
-    <mergeCell ref="I242:M242"/>
-    <mergeCell ref="D257:E257"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="H399:I399"/>
-    <mergeCell ref="B400:G400"/>
-    <mergeCell ref="I400:M400"/>
-    <mergeCell ref="H429:I429"/>
-    <mergeCell ref="D354:E354"/>
-    <mergeCell ref="B355:G355"/>
-    <mergeCell ref="I355:M355"/>
-    <mergeCell ref="D370:E370"/>
-    <mergeCell ref="B371:G371"/>
-    <mergeCell ref="I371:M371"/>
-    <mergeCell ref="D322:E322"/>
-    <mergeCell ref="B323:G323"/>
-    <mergeCell ref="I323:M323"/>
-    <mergeCell ref="D337:E337"/>
-    <mergeCell ref="B338:G338"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>
